--- a/biology/Botanique/Arenaria_congesta/Arenaria_congesta.xlsx
+++ b/biology/Botanique/Arenaria_congesta/Arenaria_congesta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arenaria congesta est une espèce de plante de la famille des Caryophyllaceae. Elle est indigène de l'Ouest de l'Amérique du Nord à partir du centre du Canada jusqu'au Sud-Ouest américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée vivace qui forme des touffes de tiges minces qui atteignent une hauteur de 40 cm. Les feuilles en forme d'aiguille atteignent 8 cm de long et n'ont que quelques millimètres de large. Elles peuvent être charnues ou plates et elles ont souvent une extrémité pointue. La plupart des feuilles sont situées en paquet à la base de la plante et il n'y en a que quelques-unes dispersées le long de le tige qui est principalement nue.
 L'inflorescence est une cyme ouverte et arrondie de cinq fleurs à pétales blancs. Le fruit est une capsule dentelée qui contient plusieurs graines rougeâtres.
@@ -543,7 +557,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arenaria congesta était utilisée en tant que plante médicinale par plusieurs Premières nations, dont les Shoshones.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (20 mai 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (20 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Arenaria congesta var. aculeata (S. Watson) M.E. Jones
 variété Arenaria congesta var. cephaloidea (Rydb.) Maguire
 variété Arenaria congesta var. charlestonensis Maguire
